--- a/excel-templates/t_house_asset.xlsx
+++ b/excel-templates/t_house_asset.xlsx
@@ -16,15 +16,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>{{ $fe: list t.createTime</t>
-  </si>
-  <si>
-    <t>t.ownerCommunity</t>
-  </si>
-  <si>
-    <t>t.ownerPhone }}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>换房匹配成功记录</t>
+  </si>
+  <si>
+    <t>小区</t>
+  </si>
+  <si>
+    <t>业主姓名</t>
+  </si>
+  <si>
+    <t>业主电话</t>
+  </si>
+  <si>
+    <t>业主楼栋</t>
+  </si>
+  <si>
+    <t>业主地址门牌号</t>
+  </si>
+  <si>
+    <t>目标业主姓名</t>
+  </si>
+  <si>
+    <t>目标业主电话</t>
+  </si>
+  <si>
+    <t>目标楼栋</t>
+  </si>
+  <si>
+    <t>目标地址门牌号</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>{{ $fe: list t.ownerCommunity</t>
+  </si>
+  <si>
+    <t>t.ownerName</t>
+  </si>
+  <si>
+    <t>t.ownerPhone</t>
+  </si>
+  <si>
+    <t>t.ownerBuilding</t>
+  </si>
+  <si>
+    <t>t.ownerNumber</t>
+  </si>
+  <si>
+    <t>t.matchedName</t>
+  </si>
+  <si>
+    <t>t.matchedPhone</t>
+  </si>
+  <si>
+    <t>t.matchedBuilding</t>
+  </si>
+  <si>
+    <t>t.matchedNumber</t>
+  </si>
+  <si>
+    <t>t.createTime }}</t>
   </si>
 </sst>
 </file>
@@ -32,10 +86,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -46,11 +100,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -62,16 +138,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,7 +176,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,82 +217,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,6 +228,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -206,19 +260,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,79 +404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,79 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,36 +451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,8 +472,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,11 +502,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,154 +556,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -999,29 +1059,119 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
         <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
